--- a/[BD]/pruebas escritorio.xlsx
+++ b/[BD]/pruebas escritorio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="12">
   <si>
     <t>cons</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>3-4</t>
+  </si>
+  <si>
+    <t>10-5</t>
   </si>
   <si>
     <t>*</t>
@@ -7124,8 +7127,8 @@
   <sheetPr/>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.14285714285714" defaultRowHeight="15"/>
@@ -7191,7 +7194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="12" t="s">
         <v>0</v>
       </c>
@@ -7225,6 +7228,9 @@
       </c>
       <c r="L5" s="19" t="s">
         <v>9</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -7247,10 +7253,10 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:13">
       <c r="A7" s="12">
         <v>1</v>
       </c>
@@ -7269,16 +7275,19 @@
       <c r="F7"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:13">
       <c r="A8" s="12">
         <v>1</v>
       </c>
@@ -7296,19 +7305,22 @@
       </c>
       <c r="F8"/>
       <c r="G8" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:13">
       <c r="A9" s="12">
         <v>1</v>
       </c>
@@ -7326,19 +7338,22 @@
       </c>
       <c r="F9"/>
       <c r="G9" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="12">
         <v>1</v>
       </c>
@@ -7356,22 +7371,25 @@
       </c>
       <c r="F10"/>
       <c r="G10" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="12">
         <v>1</v>
       </c>
@@ -7389,25 +7407,28 @@
       </c>
       <c r="F11"/>
       <c r="G11" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:10">
+    <row r="12" s="1" customFormat="1" spans="1:13">
       <c r="A12" s="14">
         <v>2</v>
       </c>
@@ -7425,16 +7446,19 @@
       </c>
       <c r="F12" s="15"/>
       <c r="H12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:13">
       <c r="A13" s="12">
         <v>2</v>
       </c>
@@ -7452,19 +7476,22 @@
       </c>
       <c r="F13"/>
       <c r="G13" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:13">
       <c r="A14" s="12">
         <v>2</v>
       </c>
@@ -7482,19 +7509,22 @@
       </c>
       <c r="F14"/>
       <c r="G14" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="12">
         <v>2</v>
       </c>
@@ -7512,22 +7542,25 @@
       </c>
       <c r="F15"/>
       <c r="G15" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="12">
         <v>2</v>
       </c>
@@ -7545,22 +7578,25 @@
       </c>
       <c r="F16"/>
       <c r="G16" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:10">
@@ -7581,16 +7617,16 @@
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7611,16 +7647,16 @@
       </c>
       <c r="F18"/>
       <c r="G18" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -7641,19 +7677,19 @@
       </c>
       <c r="F19"/>
       <c r="G19" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -7674,22 +7710,22 @@
       </c>
       <c r="F20"/>
       <c r="G20" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -7710,10 +7746,10 @@
       </c>
       <c r="F21"/>
       <c r="I21" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -7734,13 +7770,13 @@
       </c>
       <c r="F22"/>
       <c r="I22" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -7761,16 +7797,16 @@
       </c>
       <c r="F23"/>
       <c r="I23" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:12">
@@ -7791,13 +7827,13 @@
       </c>
       <c r="F24" s="15"/>
       <c r="I24" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:12">
@@ -7818,16 +7854,16 @@
       </c>
       <c r="F25" s="16"/>
       <c r="I25" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -7850,16 +7886,16 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:8">
